--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_12_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50.22836170105478</v>
+        <v>9995.443978510028</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.22836170105478</v>
+        <v>9995.443978510028</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77417.12448944987</v>
+        <v>5168698.673855704</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77417.12448944987</v>
+        <v>5168698.673855704</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1342082960.082022</v>
+        <v>49647342.7639154</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14337.7579397961</v>
+        <v>1186404.232299657</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27491.41862277345</v>
+        <v>2168955.382467683</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40654.30283653166</v>
+        <v>3151506.53263571</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>54084.98000691309</v>
+        <v>4133072.88969263</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67515.67536500035</v>
+        <v>5114639.246749551</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80946.37072308762</v>
+        <v>6096205.60380647</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>94376.99181409</v>
+        <v>7077771.960863386</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>107807.6871721772</v>
+        <v>8059338.317920301</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>121247.980309661</v>
+        <v>9039851.807841679</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>134689.134504774</v>
+        <v>10020536.64823126</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>148130.2886998869</v>
+        <v>11001221.48862085</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>161571.4428949999</v>
+        <v>11981906.32901045</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>175012.5970901128</v>
+        <v>12962591.16940004</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>188453.7512852256</v>
+        <v>13943276.00978965</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201894.9054803386</v>
+        <v>14923960.85017925</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>178</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
